--- a/biology/Zoologie/Archispirostreptus_gigas/Archispirostreptus_gigas.xlsx
+++ b/biology/Zoologie/Archispirostreptus_gigas/Archispirostreptus_gigas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archispirostreptus gigas est une espèce d'arthropodes de la classe des diplopodes (mille-pattes). Surnommé le iule géant africain, c'est le plus long des diplopodes : les plus grands individus répertoriés mesurent 38,5 cm de long pour 2,1 cm de diamètre. Il a 256 pattes[1].
-Il est largement répandu dans l'est de l'Afrique, du Mozambique au Kenya, rarement au-dessus de  1 000 mètres[2], principalement en forêt, mais aussi dans les zones côtières, si elles possèdent au moins quelques arbres[2].
-Archispirostreptus gigas est de couleur noire. Détritivore, il est parfois gardé comme animal de compagnie. En général, les mille-pattes géants ont une espérance de vie de 7 à 10 ans[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archispirostreptus gigas est une espèce d'arthropodes de la classe des diplopodes (mille-pattes). Surnommé le iule géant africain, c'est le plus long des diplopodes : les plus grands individus répertoriés mesurent 38,5 cm de long pour 2,1 cm de diamètre. Il a 256 pattes.
+Il est largement répandu dans l'est de l'Afrique, du Mozambique au Kenya, rarement au-dessus de  1 000 mètres, principalement en forêt, mais aussi dans les zones côtières, si elles possèdent au moins quelques arbres.
+Archispirostreptus gigas est de couleur noire. Détritivore, il est parfois gardé comme animal de compagnie. En général, les mille-pattes géants ont une espérance de vie de 7 à 10 ans.
 </t>
         </is>
       </c>
